--- a/work/dynamic-elution.xlsx
+++ b/work/dynamic-elution.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -145,7 +145,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -442,98 +442,802 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.55000000000000004</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2.15</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5.85</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>17.5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2.75</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1.3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B13">
+      <c r="B56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
         <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
